--- a/logs/log_execution_warning.xlsx
+++ b/logs/log_execution_warning.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,17 +412,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MER_CT_PCanico_16</t>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B17</t>
+          <t>D70</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Empty excell cell B17 on  sheetname: MER_CT_PCanico_16</t>
+          <t>Empty excell cell D70 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -439,20 +439,1856 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MER_CT_PCanico_16</t>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B40</t>
+          <t>C70</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Empty excell cell B40 on  sheetname: MER_CT_PCanico_16</t>
+          <t>Empty excell cell C70 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>E70</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Empty excell cell E70 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>F70</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Empty excell cell F70 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>G70</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Empty excell cell G70 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>H70</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Empty excell cell H70 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>I70</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Empty excell cell I70 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>J70</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Empty excell cell J70 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>K70</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Empty excell cell K70 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>L70</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Empty excell cell L70 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B70</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Empty excell cell B70 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>E75</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Empty excell cell E75 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>I75</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Empty excell cell I75 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B75</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Empty excell cell B75 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>F75</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Empty excell cell F75 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>J75</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Empty excell cell J75 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>D75</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Empty excell cell D75 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C75</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Empty excell cell C75 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>G75</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Empty excell cell G75 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>H75</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Empty excell cell H75 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>L75</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Empty excell cell L75 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B71</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Empty excell cell B71 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B81</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Empty excell cell B81 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>D71</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Empty excell cell D71 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>D80</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Empty excell cell D80 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>C71</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Empty excell cell C71 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>D81</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Empty excell cell D81 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>E71</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Empty excell cell E71 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>C80</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Empty excell cell C80 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>F71</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Empty excell cell F71 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>C81</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Empty excell cell C81 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>G71</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Empty excell cell G71 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>E80</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Empty excell cell E80 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>H71</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Empty excell cell H71 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>E81</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Empty excell cell E81 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>I71</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Empty excell cell I71 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>F80</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Empty excell cell F80 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>J71</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Empty excell cell J71 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>F81</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Empty excell cell F81 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>K71</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Empty excell cell K71 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>G80</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Empty excell cell G80 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>C76</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Empty excell cell C76 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>G81</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Empty excell cell G81 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>L71</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Empty excell cell L71 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>H80</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Empty excell cell H80 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>E76</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Empty excell cell E76 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>H81</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Empty excell cell H81 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>H76</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Empty excell cell H76 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>I80</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Empty excell cell I80 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>I76</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Empty excell cell I76 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>I81</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Empty excell cell I81 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>L76</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Empty excell cell L76 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>J80</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Empty excell cell J80 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>B76</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Empty excell cell B76 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>J81</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Empty excell cell J81 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>F76</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Empty excell cell F76 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>K80</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Empty excell cell K80 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>J76</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Empty excell cell J76 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>K81</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Empty excell cell K81 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>D76</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Empty excell cell D76 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>L80</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Empty excell cell L80 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>G76</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Empty excell cell G76 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>L81</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Empty excell cell L81 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>K76</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Empty excell cell K76 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>B80</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Empty excell cell B80 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>G87</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Empty excell cell G87 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>G86</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Empty excell cell G86 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>G85</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Empty excell cell G85 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>G89</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Empty excell cell G89 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>G88</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Empty excell cell G88 on  sheetname: MER_PREVENTION_INHAGOIA_12</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>

--- a/logs/log_execution_warning.xlsx
+++ b/logs/log_execution_warning.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,20 +412,452 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MER_CT_1Maio_15</t>
+          <t>MER_ATS_Xipamanine_12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B17</t>
+          <t>E82</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Empty excell cell B17 on  sheetname: MER_CT_1Maio_15</t>
+          <t>Empty excell cell E82 on  sheetname: MER_ATS_Xipamanine_12</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Empty excell cell C13 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B13</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Empty excell cell B13 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B45</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Empty excell cell B45 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B44</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Empty excell cell B44 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C45</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Empty excell cell C45 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Empty excell cell C44 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B74</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Empty excell cell B74 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B73</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Empty excell cell B73 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B117</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Empty excell cell B117 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B153</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Empty excell cell B153 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B168</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Empty excell cell B168 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B172</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Empty excell cell B172 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B169</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Empty excell cell B169 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B173</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Empty excell cell B173 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>B178</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Empty excell cell B178 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C178</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Empty excell cell C178 on  sheetname: MER_ATS_Xipamanine_12</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>

--- a/logs/log_execution_warning.xlsx
+++ b/logs/log_execution_warning.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,17 +412,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>E82</t>
+          <t>B17</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Empty excell cell E82 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell B17 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -439,17 +439,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>B40</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Empty excell cell C13 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell B40 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -466,17 +466,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B13</t>
+          <t>B58</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Empty excell cell B13 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell B58 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -493,17 +493,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B45</t>
+          <t>H92</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Empty excell cell B45 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell H92 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -520,17 +520,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B44</t>
+          <t>H93</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Empty excell cell B44 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell H93 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -547,17 +547,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C45</t>
+          <t>H94</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Empty excell cell C45 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell H94 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -574,17 +574,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>H95</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Empty excell cell C44 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell H95 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>B74</t>
+          <t>H97</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Empty excell cell B74 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell H97 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -628,17 +628,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>B73</t>
+          <t>H96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Empty excell cell B73 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell H96 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -655,17 +655,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>B117</t>
+          <t>D105</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Empty excell cell B117 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell D105 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -682,17 +682,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>B153</t>
+          <t>D104</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Empty excell cell B153 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell D104 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -709,17 +709,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>B168</t>
+          <t>C105</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Empty excell cell B168 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell C105 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -736,17 +736,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>B172</t>
+          <t>C105</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Empty excell cell B172 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell C105 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -763,17 +763,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B169</t>
+          <t>E105</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Empty excell cell B169 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell E105 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -790,17 +790,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B173</t>
+          <t>E104</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Empty excell cell B173 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell E104 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -817,17 +817,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>B178</t>
+          <t>F105</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Empty excell cell B178 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell F105 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -844,20 +844,1856 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MER_ATS_Xipamanine_12</t>
+          <t>MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C178</t>
+          <t>F104</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Empty excell cell C178 on  sheetname: MER_ATS_Xipamanine_12</t>
+          <t>Empty excell cell F104 on  sheetname: MER_CT_Bagamoio_24</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>G105</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Empty excell cell G105 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>G104</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Empty excell cell G104 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>H105</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Empty excell cell H105 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>H104</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Empty excell cell H104 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>I105</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Empty excell cell I105 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>I104</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Empty excell cell I104 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>J105</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Empty excell cell J105 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>J104</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Empty excell cell J104 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>K105</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Empty excell cell K105 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>K104</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Empty excell cell K104 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Empty excell cell L105 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>L104</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Empty excell cell L104 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B105</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Empty excell cell B105 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B104</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Empty excell cell B104 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B150</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Empty excell cell B150 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B130</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Empty excell cell B130 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>F188</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Empty excell cell F188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>F192</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Empty excell cell F192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>F189</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Empty excell cell F189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>F193</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Empty excell cell F193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>D188</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Empty excell cell D188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>D192</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Empty excell cell D192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>D189</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Empty excell cell D189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>D193</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Empty excell cell D193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>G188</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Empty excell cell G188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>G192</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Empty excell cell G192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>G189</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Empty excell cell G189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>G193</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Empty excell cell G193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>C188</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Empty excell cell C188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>C192</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Empty excell cell C192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>C189</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Empty excell cell C189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>C193</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Empty excell cell C193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>H188</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Empty excell cell H188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>H192</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Empty excell cell H192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>H189</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Empty excell cell H189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>H193</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Empty excell cell H193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>I188</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Empty excell cell I188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>I192</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Empty excell cell I192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>I189</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Empty excell cell I189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>I193</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Empty excell cell I193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>J188</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Empty excell cell J188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>J192</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Empty excell cell J192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>J189</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Empty excell cell J189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>J193</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Empty excell cell J193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>K188</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Empty excell cell K188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>K192</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Empty excell cell K192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>K189</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Empty excell cell K189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>K193</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Empty excell cell K193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>L188</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Empty excell cell L188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>L192</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Empty excell cell L192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>L189</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Empty excell cell L189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>L193</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Empty excell cell L193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>M188</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Empty excell cell M188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>M192</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Empty excell cell M192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>M189</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Empty excell cell M189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>M193</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Empty excell cell M193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>N188</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Empty excell cell N188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>N192</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Empty excell cell N192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>N189</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Empty excell cell N189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>N193</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Empty excell cell N193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>E188</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Empty excell cell E188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>E192</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Empty excell cell E192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>E189</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Empty excell cell E189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>E193</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Empty excell cell E193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>B188</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Empty excell cell B188 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>B192</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Empty excell cell B192 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>B189</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Empty excell cell B189 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>0.xlsx</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>B193</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Empty excell cell B193 on  sheetname: MER_CT_Bagamoio_24</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>

--- a/logs/log_execution_warning.xlsx
+++ b/logs/log_execution_warning.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -422,7 +422,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Empty excell cell B17 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell B17 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -439,7 +439,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -449,7 +449,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Empty excell cell B40 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell B40 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Empty excell cell B58 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell B58 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Empty excell cell H92 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell H92 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Empty excell cell H93 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell H93 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Empty excell cell H94 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell H94 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Empty excell cell H95 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell H95 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Empty excell cell H97 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell H97 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Empty excell cell H96 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell H96 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Empty excell cell D105 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell D105 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Empty excell cell D104 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell D104 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Empty excell cell C105 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell C105 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Empty excell cell C105 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell C105 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Empty excell cell E105 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell E105 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Empty excell cell E104 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell E104 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Empty excell cell F105 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell F105 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Empty excell cell F104 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell F104 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Empty excell cell G105 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell G105 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Empty excell cell G104 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell G104 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Empty excell cell H105 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell H105 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Empty excell cell H104 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell H104 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Empty excell cell I105 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell I105 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Empty excell cell I104 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell I104 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Empty excell cell J105 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell J105 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Empty excell cell J104 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell J104 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Empty excell cell K105 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell K105 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Empty excell cell K104 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell K104 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Empty excell cell L105 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell L105 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Empty excell cell L104 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell L104 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Empty excell cell B105 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell B105 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Empty excell cell B104 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell B104 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Empty excell cell B150 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell B150 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Empty excell cell B130 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell B130 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Empty excell cell F188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell F188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Empty excell cell F192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell F192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Empty excell cell F189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell F189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Empty excell cell F193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell F193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Empty excell cell D188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell D188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Empty excell cell D192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell D192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Empty excell cell D189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell D189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Empty excell cell D193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell D193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Empty excell cell G188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell G188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Empty excell cell G192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell G192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Empty excell cell G189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell G189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Empty excell cell G193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell G193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Empty excell cell C188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell C188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Empty excell cell C192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell C192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Empty excell cell C189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell C189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Empty excell cell C193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell C193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Empty excell cell H188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell H188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Empty excell cell H192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell H192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Empty excell cell H189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell H189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Empty excell cell H193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell H193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Empty excell cell I188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell I188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Empty excell cell I192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell I192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Empty excell cell I189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell I189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Empty excell cell I193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell I193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Empty excell cell J188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell J188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Empty excell cell J192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell J192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Empty excell cell J189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell J189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Empty excell cell J193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell J193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Empty excell cell K188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell K188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Empty excell cell K192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell K192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Empty excell cell K189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell K189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Empty excell cell K193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell K193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Empty excell cell L188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell L188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Empty excell cell L192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell L192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Empty excell cell L189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell L189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Empty excell cell L193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell L193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Empty excell cell M188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell M188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Empty excell cell M192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell M192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Empty excell cell M189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell M189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Empty excell cell M193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell M193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Empty excell cell N188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell N188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Empty excell cell N192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell N192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Empty excell cell N189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell N189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Empty excell cell N193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell N193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Empty excell cell E188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell E188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Empty excell cell E192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell E192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Empty excell cell E189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell E189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Empty excell cell E193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell E193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Empty excell cell B188 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell B188 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Empty excell cell B192 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell B192 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Empty excell cell B189 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell B189 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MER_CT_Bagamoio_24</t>
+          <t>MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Empty excell cell B193 on  sheetname: MER_CT_Bagamoio_24</t>
+          <t>Empty excell cell B193 on  sheetname: MER_CT_Romao_14</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
